--- a/contratos/contratos-8-2017.xlsx
+++ b/contratos/contratos-8-2017.xlsx
@@ -1030,7 +1030,7 @@
     <t>MONROY  AGUSTIN ALEJANDRO</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>BOUJON HECTOR ORLANDO</t>
@@ -1051,7 +1051,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -1114,7 +1114,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1258,7 +1258,7 @@
     <t>BISOGNI GUSTAVO ADOLFO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1273,7 +1273,7 @@
     <t>RUIZ DIAZ MAURO JESUS</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1852,745 +1852,745 @@
     <t>114</t>
   </si>
   <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>9.147,00</t>
-  </si>
-  <si>
-    <t>1.120,00</t>
-  </si>
-  <si>
-    <t>51.650,00</t>
-  </si>
-  <si>
-    <t>29.250,00</t>
-  </si>
-  <si>
-    <t>889.500,00</t>
-  </si>
-  <si>
-    <t>798.500,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>399.000,00</t>
-  </si>
-  <si>
-    <t>855,00</t>
-  </si>
-  <si>
-    <t>192.000,00</t>
-  </si>
-  <si>
-    <t>12.899,07</t>
-  </si>
-  <si>
-    <t>987.350,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>588,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>2.199,00</t>
-  </si>
-  <si>
-    <t>134.761,43</t>
-  </si>
-  <si>
-    <t>55.480,00</t>
-  </si>
-  <si>
-    <t>8.820,00</t>
-  </si>
-  <si>
-    <t>14.535,00</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>135.269,50</t>
-  </si>
-  <si>
-    <t>8.750,00</t>
-  </si>
-  <si>
-    <t>38.090,00</t>
-  </si>
-  <si>
-    <t>43.198,00</t>
-  </si>
-  <si>
-    <t>49.629,40</t>
-  </si>
-  <si>
-    <t>20.175,00</t>
-  </si>
-  <si>
-    <t>119,90</t>
-  </si>
-  <si>
-    <t>36.355,87</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>22.315,00</t>
-  </si>
-  <si>
-    <t>66.380,95</t>
-  </si>
-  <si>
-    <t>31.061,54</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.379,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>11.500,21</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>19,40</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>28.266,00</t>
-  </si>
-  <si>
-    <t>20.412,45</t>
-  </si>
-  <si>
-    <t>136.373,16</t>
-  </si>
-  <si>
-    <t>152,85</t>
-  </si>
-  <si>
-    <t>3.289,40</t>
-  </si>
-  <si>
-    <t>195,00</t>
-  </si>
-  <si>
-    <t>49.250,00</t>
-  </si>
-  <si>
-    <t>71.735,00</t>
-  </si>
-  <si>
-    <t>1.256,67</t>
-  </si>
-  <si>
-    <t>6.381,86</t>
-  </si>
-  <si>
-    <t>8.195,80</t>
-  </si>
-  <si>
-    <t>969,00</t>
-  </si>
-  <si>
-    <t>18.200,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>154.441,31</t>
-  </si>
-  <si>
-    <t>337.437,60</t>
-  </si>
-  <si>
-    <t>710,00</t>
-  </si>
-  <si>
-    <t>4.145,00</t>
-  </si>
-  <si>
-    <t>81,70</t>
-  </si>
-  <si>
-    <t>4.413,40</t>
-  </si>
-  <si>
-    <t>33.185,15</t>
-  </si>
-  <si>
-    <t>5.253,23</t>
-  </si>
-  <si>
-    <t>93,00</t>
-  </si>
-  <si>
-    <t>17.009,00</t>
-  </si>
-  <si>
-    <t>5.624,49</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>2.765,00</t>
-  </si>
-  <si>
-    <t>4.080,00</t>
-  </si>
-  <si>
-    <t>14.889,30</t>
-  </si>
-  <si>
-    <t>4.053,55</t>
-  </si>
-  <si>
-    <t>3.268,98</t>
-  </si>
-  <si>
-    <t>5.324,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>68.081,99</t>
-  </si>
-  <si>
-    <t>7.710,00</t>
-  </si>
-  <si>
-    <t>44.340,74</t>
-  </si>
-  <si>
-    <t>6.450,00</t>
-  </si>
-  <si>
-    <t>47,70</t>
-  </si>
-  <si>
-    <t>2.119,70</t>
-  </si>
-  <si>
-    <t>26.682,73</t>
-  </si>
-  <si>
-    <t>8.479,98</t>
-  </si>
-  <si>
-    <t>13.684,00</t>
-  </si>
-  <si>
-    <t>13.517,11</t>
-  </si>
-  <si>
-    <t>14.320,00</t>
-  </si>
-  <si>
-    <t>87.515,50</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>571,15</t>
-  </si>
-  <si>
-    <t>1.120,48</t>
-  </si>
-  <si>
-    <t>177,73</t>
-  </si>
-  <si>
-    <t>1.535,00</t>
-  </si>
-  <si>
-    <t>4.031,48</t>
-  </si>
-  <si>
-    <t>482,88</t>
-  </si>
-  <si>
-    <t>3.685,00</t>
-  </si>
-  <si>
-    <t>6.860,00</t>
-  </si>
-  <si>
-    <t>3.412,00</t>
-  </si>
-  <si>
-    <t>21.090,00</t>
-  </si>
-  <si>
-    <t>3.772,20</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>1.194,00</t>
-  </si>
-  <si>
-    <t>109.960,00</t>
-  </si>
-  <si>
-    <t>4.930,00</t>
-  </si>
-  <si>
-    <t>47.760,00</t>
-  </si>
-  <si>
-    <t>546,95</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>17.647,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>600.235,87</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>5,93</t>
-  </si>
-  <si>
-    <t>221,00</t>
-  </si>
-  <si>
-    <t>35.865,85</t>
-  </si>
-  <si>
-    <t>1.986,00</t>
-  </si>
-  <si>
-    <t>1.410,00</t>
-  </si>
-  <si>
-    <t>3.019,00</t>
-  </si>
-  <si>
-    <t>220,50</t>
-  </si>
-  <si>
-    <t>1.975,50</t>
-  </si>
-  <si>
-    <t>3.710,86</t>
-  </si>
-  <si>
-    <t>1.609,36</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>3.415,00</t>
-  </si>
-  <si>
-    <t>184,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>435,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>5.497,46</t>
-  </si>
-  <si>
-    <t>373,00</t>
-  </si>
-  <si>
-    <t>32.618,10</t>
-  </si>
-  <si>
-    <t>33.900,00</t>
-  </si>
-  <si>
-    <t>4.761,00</t>
-  </si>
-  <si>
-    <t>1.768,13</t>
-  </si>
-  <si>
-    <t>506,85</t>
-  </si>
-  <si>
-    <t>367,00</t>
-  </si>
-  <si>
-    <t>528,40</t>
-  </si>
-  <si>
-    <t>5.550,00</t>
-  </si>
-  <si>
-    <t>2.897,00</t>
-  </si>
-  <si>
-    <t>213,00</t>
-  </si>
-  <si>
-    <t>6.380,00</t>
-  </si>
-  <si>
-    <t>8.250,00</t>
-  </si>
-  <si>
-    <t>369.000,00</t>
-  </si>
-  <si>
-    <t>14.600,00</t>
-  </si>
-  <si>
-    <t>11.040,00</t>
-  </si>
-  <si>
-    <t>18.766,98</t>
-  </si>
-  <si>
-    <t>40.494,00</t>
-  </si>
-  <si>
-    <t>5.750,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>9.450,00</t>
-  </si>
-  <si>
-    <t>58.940,00</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>5.979,63</t>
-  </si>
-  <si>
-    <t>4.502,56</t>
-  </si>
-  <si>
-    <t>38.648,00</t>
-  </si>
-  <si>
-    <t>91,48</t>
-  </si>
-  <si>
-    <t>965,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>140,26</t>
-  </si>
-  <si>
-    <t>3.600.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>25.116,58</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.999,12</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>24.641,50</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>8.350,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>23.888,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>21.238,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>7.351,39</t>
-  </si>
-  <si>
-    <t>14.563,00</t>
-  </si>
-  <si>
-    <t>1.028,50</t>
-  </si>
-  <si>
-    <t>7.535,00</t>
-  </si>
-  <si>
-    <t>19.082,00</t>
-  </si>
-  <si>
-    <t>21,20</t>
-  </si>
-  <si>
-    <t>169,40</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>9.050,40</t>
-  </si>
-  <si>
-    <t>10.121,73</t>
-  </si>
-  <si>
-    <t>69,57</t>
-  </si>
-  <si>
-    <t>5.316,00</t>
-  </si>
-  <si>
-    <t>5.713,00</t>
-  </si>
-  <si>
-    <t>261,00</t>
-  </si>
-  <si>
-    <t>1.375,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>19.648,16</t>
-  </si>
-  <si>
-    <t>26.718,67</t>
-  </si>
-  <si>
-    <t>2.488,00</t>
-  </si>
-  <si>
-    <t>1.015,20</t>
-  </si>
-  <si>
-    <t>598,00</t>
-  </si>
-  <si>
-    <t>467,56</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>5.014,24</t>
-  </si>
-  <si>
-    <t>19.190,00</t>
-  </si>
-  <si>
-    <t>37.500,00</t>
-  </si>
-  <si>
-    <t>7.011,70</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>44.400,00</t>
-  </si>
-  <si>
-    <t>14.634,15</t>
-  </si>
-  <si>
-    <t>3.407.714,72</t>
-  </si>
-  <si>
-    <t>272.540,00</t>
-  </si>
-  <si>
-    <t>280.000,00</t>
-  </si>
-  <si>
-    <t>271.000,00</t>
-  </si>
-  <si>
-    <t>275.620,00</t>
-  </si>
-  <si>
-    <t>283.375,00</t>
-  </si>
-  <si>
-    <t>478.000,00</t>
-  </si>
-  <si>
-    <t>576.310,00</t>
-  </si>
-  <si>
-    <t>704.895,00</t>
-  </si>
-  <si>
-    <t>280.185,00</t>
-  </si>
-  <si>
-    <t>481.245,00</t>
-  </si>
-  <si>
-    <t>685.000,00</t>
-  </si>
-  <si>
-    <t>280.680,00</t>
-  </si>
-  <si>
-    <t>488.000,00</t>
-  </si>
-  <si>
-    <t>275.750,00</t>
-  </si>
-  <si>
-    <t>15.499.962,25</t>
-  </si>
-  <si>
-    <t>25.455,32</t>
-  </si>
-  <si>
-    <t>9.156,00</t>
-  </si>
-  <si>
-    <t>71.290,00</t>
-  </si>
-  <si>
-    <t>138.000,00</t>
-  </si>
-  <si>
-    <t>9.850,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>9.778,16</t>
-  </si>
-  <si>
-    <t>325.000,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>28.800,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>9147.00</t>
+  </si>
+  <si>
+    <t>1120.00</t>
+  </si>
+  <si>
+    <t>51650.00</t>
+  </si>
+  <si>
+    <t>29250.00</t>
+  </si>
+  <si>
+    <t>889500.00</t>
+  </si>
+  <si>
+    <t>798500.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>399000.00</t>
+  </si>
+  <si>
+    <t>855.00</t>
+  </si>
+  <si>
+    <t>192000.00</t>
+  </si>
+  <si>
+    <t>12899.07</t>
+  </si>
+  <si>
+    <t>987350.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>588.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>2199.00</t>
+  </si>
+  <si>
+    <t>134761.43</t>
+  </si>
+  <si>
+    <t>55480.00</t>
+  </si>
+  <si>
+    <t>8820.00</t>
+  </si>
+  <si>
+    <t>14535.00</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>135269.50</t>
+  </si>
+  <si>
+    <t>8750.00</t>
+  </si>
+  <si>
+    <t>38090.00</t>
+  </si>
+  <si>
+    <t>43198.00</t>
+  </si>
+  <si>
+    <t>49629.40</t>
+  </si>
+  <si>
+    <t>20175.00</t>
+  </si>
+  <si>
+    <t>119.90</t>
+  </si>
+  <si>
+    <t>36355.87</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>22315.00</t>
+  </si>
+  <si>
+    <t>66380.95</t>
+  </si>
+  <si>
+    <t>31061.54</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2379.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>11500.21</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>19.40</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>28266.00</t>
+  </si>
+  <si>
+    <t>20412.45</t>
+  </si>
+  <si>
+    <t>136373.16</t>
+  </si>
+  <si>
+    <t>152.85</t>
+  </si>
+  <si>
+    <t>3289.40</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>49250.00</t>
+  </si>
+  <si>
+    <t>71735.00</t>
+  </si>
+  <si>
+    <t>1256.67</t>
+  </si>
+  <si>
+    <t>6381.86</t>
+  </si>
+  <si>
+    <t>8195.80</t>
+  </si>
+  <si>
+    <t>969.00</t>
+  </si>
+  <si>
+    <t>18200.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>154441.31</t>
+  </si>
+  <si>
+    <t>337437.60</t>
+  </si>
+  <si>
+    <t>710.00</t>
+  </si>
+  <si>
+    <t>4145.00</t>
+  </si>
+  <si>
+    <t>81.70</t>
+  </si>
+  <si>
+    <t>4413.40</t>
+  </si>
+  <si>
+    <t>33185.15</t>
+  </si>
+  <si>
+    <t>5253.23</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>17009.00</t>
+  </si>
+  <si>
+    <t>5624.49</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>2765.00</t>
+  </si>
+  <si>
+    <t>4080.00</t>
+  </si>
+  <si>
+    <t>14889.30</t>
+  </si>
+  <si>
+    <t>4053.55</t>
+  </si>
+  <si>
+    <t>3268.98</t>
+  </si>
+  <si>
+    <t>5324.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>68081.99</t>
+  </si>
+  <si>
+    <t>7710.00</t>
+  </si>
+  <si>
+    <t>44340.74</t>
+  </si>
+  <si>
+    <t>6450.00</t>
+  </si>
+  <si>
+    <t>47.70</t>
+  </si>
+  <si>
+    <t>2119.70</t>
+  </si>
+  <si>
+    <t>26682.73</t>
+  </si>
+  <si>
+    <t>8479.98</t>
+  </si>
+  <si>
+    <t>13684.00</t>
+  </si>
+  <si>
+    <t>13517.11</t>
+  </si>
+  <si>
+    <t>14320.00</t>
+  </si>
+  <si>
+    <t>87515.50</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>571.15</t>
+  </si>
+  <si>
+    <t>1120.48</t>
+  </si>
+  <si>
+    <t>177.73</t>
+  </si>
+  <si>
+    <t>1535.00</t>
+  </si>
+  <si>
+    <t>4031.48</t>
+  </si>
+  <si>
+    <t>482.88</t>
+  </si>
+  <si>
+    <t>3685.00</t>
+  </si>
+  <si>
+    <t>6860.00</t>
+  </si>
+  <si>
+    <t>3412.00</t>
+  </si>
+  <si>
+    <t>21090.00</t>
+  </si>
+  <si>
+    <t>3772.20</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>1194.00</t>
+  </si>
+  <si>
+    <t>109960.00</t>
+  </si>
+  <si>
+    <t>4930.00</t>
+  </si>
+  <si>
+    <t>47760.00</t>
+  </si>
+  <si>
+    <t>546.95</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>17647.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>600235.87</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>5.93</t>
+  </si>
+  <si>
+    <t>221.00</t>
+  </si>
+  <si>
+    <t>35865.85</t>
+  </si>
+  <si>
+    <t>1986.00</t>
+  </si>
+  <si>
+    <t>1410.00</t>
+  </si>
+  <si>
+    <t>3019.00</t>
+  </si>
+  <si>
+    <t>220.50</t>
+  </si>
+  <si>
+    <t>1975.50</t>
+  </si>
+  <si>
+    <t>3710.86</t>
+  </si>
+  <si>
+    <t>1609.36</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>3415.00</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>5497.46</t>
+  </si>
+  <si>
+    <t>373.00</t>
+  </si>
+  <si>
+    <t>32618.10</t>
+  </si>
+  <si>
+    <t>33900.00</t>
+  </si>
+  <si>
+    <t>4761.00</t>
+  </si>
+  <si>
+    <t>1768.13</t>
+  </si>
+  <si>
+    <t>506.85</t>
+  </si>
+  <si>
+    <t>367.00</t>
+  </si>
+  <si>
+    <t>528.40</t>
+  </si>
+  <si>
+    <t>5550.00</t>
+  </si>
+  <si>
+    <t>2897.00</t>
+  </si>
+  <si>
+    <t>213.00</t>
+  </si>
+  <si>
+    <t>6380.00</t>
+  </si>
+  <si>
+    <t>8250.00</t>
+  </si>
+  <si>
+    <t>369000.00</t>
+  </si>
+  <si>
+    <t>14600.00</t>
+  </si>
+  <si>
+    <t>11040.00</t>
+  </si>
+  <si>
+    <t>18766.98</t>
+  </si>
+  <si>
+    <t>40494.00</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
+    <t>58940.00</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>5979.63</t>
+  </si>
+  <si>
+    <t>4502.56</t>
+  </si>
+  <si>
+    <t>38648.00</t>
+  </si>
+  <si>
+    <t>91.48</t>
+  </si>
+  <si>
+    <t>965.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>140.26</t>
+  </si>
+  <si>
+    <t>3600000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>25116.58</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4999.12</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>24641.50</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>8350.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>23888.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>21238.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>7351.39</t>
+  </si>
+  <si>
+    <t>14563.00</t>
+  </si>
+  <si>
+    <t>1028.50</t>
+  </si>
+  <si>
+    <t>7535.00</t>
+  </si>
+  <si>
+    <t>19082.00</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>169.40</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>9050.40</t>
+  </si>
+  <si>
+    <t>10121.73</t>
+  </si>
+  <si>
+    <t>69.57</t>
+  </si>
+  <si>
+    <t>5316.00</t>
+  </si>
+  <si>
+    <t>5713.00</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>1375.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>19648.16</t>
+  </si>
+  <si>
+    <t>26718.67</t>
+  </si>
+  <si>
+    <t>2488.00</t>
+  </si>
+  <si>
+    <t>1015.20</t>
+  </si>
+  <si>
+    <t>598.00</t>
+  </si>
+  <si>
+    <t>467.56</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>5014.24</t>
+  </si>
+  <si>
+    <t>19190.00</t>
+  </si>
+  <si>
+    <t>37500.00</t>
+  </si>
+  <si>
+    <t>7011.70</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>44400.00</t>
+  </si>
+  <si>
+    <t>14634.15</t>
+  </si>
+  <si>
+    <t>3407714.72</t>
+  </si>
+  <si>
+    <t>272540.00</t>
+  </si>
+  <si>
+    <t>280000.00</t>
+  </si>
+  <si>
+    <t>271000.00</t>
+  </si>
+  <si>
+    <t>275620.00</t>
+  </si>
+  <si>
+    <t>283375.00</t>
+  </si>
+  <si>
+    <t>478000.00</t>
+  </si>
+  <si>
+    <t>576310.00</t>
+  </si>
+  <si>
+    <t>704895.00</t>
+  </si>
+  <si>
+    <t>280185.00</t>
+  </si>
+  <si>
+    <t>481245.00</t>
+  </si>
+  <si>
+    <t>685000.00</t>
+  </si>
+  <si>
+    <t>280680.00</t>
+  </si>
+  <si>
+    <t>488000.00</t>
+  </si>
+  <si>
+    <t>275750.00</t>
+  </si>
+  <si>
+    <t>15499962.25</t>
+  </si>
+  <si>
+    <t>25455.32</t>
+  </si>
+  <si>
+    <t>9156.00</t>
+  </si>
+  <si>
+    <t>71290.00</t>
+  </si>
+  <si>
+    <t>138000.00</t>
+  </si>
+  <si>
+    <t>9850.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>9778.16</t>
+  </si>
+  <si>
+    <t>325000.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>28800.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
   </si>
 </sst>
 </file>
